--- a/Ligas/Liga_suiza_2025.xlsx
+++ b/Ligas/Liga_suiza_2025.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Partidos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,23 +28,13 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004F81BD"/>
-        <bgColor rgb="004F81BD"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -65,16 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,981 +425,979 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="13" customWidth="1" min="4" max="4"/>
-    <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
-    <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
-    <col width="17" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="21" customWidth="1" min="18" max="18"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Local</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Visita</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Goles Local</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Goles Visita</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Fixture ID</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corners Local</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Corners Visita</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Amarillas Local</t>
         </is>
       </c>
-      <c r="J1" s="2" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Amarillas Visita</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Rojas Local</t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Rojas Visita</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Goles 1T Local</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Goles 1T Visita</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Goles 2T Local</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Goles 2T Visita</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Posesión Local (%)</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Resultado</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>FC Zurich</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>FC Sion</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="n">
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
         <v>1382294</v>
       </c>
-      <c r="G2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="R2" s="3" t="inlineStr">
-        <is>
-          <t>44</t>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>56</v>
+      </c>
+      <c r="R2" t="n">
+        <v>44</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>2025-07-26</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>FC ST. Gallen</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>FC Basel 1893</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="n">
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
         <v>1382296</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" t="n">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" t="n">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="R3" s="3" t="inlineStr">
-        <is>
-          <t>61</t>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>39</v>
+      </c>
+      <c r="R3" t="n">
+        <v>61</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>2025-07-26</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Grasshoppers</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>FC Luzern</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
         <v>1382295</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" t="n">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="R4" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>45</v>
+      </c>
+      <c r="R4" t="n">
+        <v>55</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>2025-07-26</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>BSC Young Boys</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Servette FC</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="n">
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>1382297</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" t="n">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="inlineStr">
-        <is>
-          <t>32</t>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>68</v>
+      </c>
+      <c r="R5" t="n">
+        <v>32</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>2025-07-27</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>FC Lugano</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>FC Thun</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="n">
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
         <v>1382299</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" t="n">
         <v>5</v>
       </c>
-      <c r="H6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="inlineStr">
-        <is>
-          <t>46</t>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>54</v>
+      </c>
+      <c r="R6" t="n">
+        <v>46</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>2025-07-27</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Lausanne</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>FC Winterthur</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="n">
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" t="n">
         <v>1382298</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" t="n">
         <v>12</v>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3" t="n">
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="R7" s="3" t="inlineStr">
-        <is>
-          <t>37</t>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>63</v>
+      </c>
+      <c r="R7" t="n">
+        <v>37</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>FC Winterthur</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>BSC Young Boys</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="n">
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
         <v>1382301</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="inlineStr">
-        <is>
-          <t>58</t>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>42</v>
+      </c>
+      <c r="R8" t="n">
+        <v>58</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Servette FC</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>FC ST. Gallen</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="n">
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" t="n">
         <v>1382300</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="n">
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="3" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="R9" s="3" t="inlineStr">
-        <is>
-          <t>36</t>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>64</v>
+      </c>
+      <c r="R9" t="n">
+        <v>36</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>V</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>2025-08-02</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>FC Basel 1893</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Grasshoppers</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3" t="n">
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
         <v>1382302</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" t="n">
         <v>5</v>
       </c>
-      <c r="H10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3" t="n">
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="inlineStr">
-        <is>
-          <t>44</t>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>56</v>
+      </c>
+      <c r="R10" t="n">
+        <v>44</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>FC Thun</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Lausanne</t>
         </is>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="n">
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
         <v>1382303</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" t="n">
         <v>8</v>
       </c>
-      <c r="H11" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="R11" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>45</v>
+      </c>
+      <c r="R11" t="n">
+        <v>55</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>FC Sion</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>FC Lugano</t>
         </is>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1382305</v>
       </c>
-      <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="I12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="P12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="R12" s="3" t="inlineStr">
-        <is>
-          <t>66</t>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>34</v>
+      </c>
+      <c r="R12" t="n">
+        <v>66</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>2025-08-03</t>
         </is>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>FC Luzern</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>FC Zurich</t>
         </is>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="n">
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
         <v>1382304</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" t="n">
         <v>4</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" t="n">
         <v>5</v>
       </c>
-      <c r="I13" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="R13" s="3" t="inlineStr">
-        <is>
-          <t>54</t>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>46</v>
+      </c>
+      <c r="R13" t="n">
+        <v>54</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>E</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>2025-08-06</t>
         </is>
       </c>
-      <c r="B14" s="3" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>FC Basel 1893</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>BSC Young Boys</t>
         </is>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="n">
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
         <v>1382306</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" t="n">
         <v>13</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" t="n">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="R14" s="3" t="inlineStr">
-        <is>
-          <t>45</t>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>55</v>
+      </c>
+      <c r="R14" t="n">
+        <v>45</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>L</t>
         </is>
       </c>
     </row>

--- a/Ligas/Liga_suiza_2025.xlsx
+++ b/Ligas/Liga_suiza_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,16 @@
           <t>Resultado</t>
         </is>
       </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -596,6 +606,16 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -663,6 +683,16 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -730,6 +760,16 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -797,6 +837,16 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -864,6 +914,16 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -931,6 +991,16 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -998,6 +1068,16 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1065,6 +1145,16 @@
           <t>V</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1132,6 +1222,16 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1199,6 +1299,16 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1266,6 +1376,16 @@
           <t>L</t>
         </is>
       </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1333,6 +1453,16 @@
           <t>E</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1398,6 +1528,478 @@
       <c r="S14" t="inlineStr">
         <is>
           <t>L</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FC ST. Gallen</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FC Winterthur</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1382308</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>36</v>
+      </c>
+      <c r="R15" t="n">
+        <v>64</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FC Luzern</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FC Thun</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1382309</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>55</v>
+      </c>
+      <c r="R16" t="n">
+        <v>45</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>BSC Young Boys</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FC Sion</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1382310</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>58</v>
+      </c>
+      <c r="R17" t="n">
+        <v>42</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FC Lugano</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FC Basel 1893</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1382312</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>50</v>
+      </c>
+      <c r="R18" t="n">
+        <v>50</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Lausanne</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FC Zurich</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1382311</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>52</v>
+      </c>
+      <c r="R19" t="n">
+        <v>48</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Servette FC</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Grasshoppers</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1382307</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>59</v>
+      </c>
+      <c r="R20" t="n">
+        <v>41</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>OK</t>
         </is>
       </c>
     </row>
